--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avanade-my.sharepoint.com/personal/laura_graham-brown_avanade_com/Documents/Demo Reports/LGB/Power Query Replace All Values/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{EDE37D03-3A13-47F3-9E09-CAEAED3E619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C65F12-24C0-445C-B602-21F18241FBF1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EDE37D03-3A13-47F3-9E09-CAEAED3E619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC39E09B-B1EB-4CEC-B85A-076AECFFD2D0}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="22785" windowWidth="29040" windowHeight="15720" xr2:uid="{E81154B4-193C-48B2-873C-57DE13421B70}"/>
   </bookViews>
@@ -403,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7577AAEF-3052-46C8-AC69-A3A59FF57687}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,9 +427,8 @@
       <c r="E1" s="1">
         <v>43922</v>
       </c>
-      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -460,7 +459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -474,7 +473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
